--- a/Code/Results/Cases/Case_7_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.504044327656686</v>
+        <v>2.511032400900774</v>
       </c>
       <c r="C2">
-        <v>0.5785970376459488</v>
+        <v>0.590412876225372</v>
       </c>
       <c r="D2">
-        <v>0.008674122566489473</v>
+        <v>0.117300427808928</v>
       </c>
       <c r="E2">
-        <v>0.04270009457951929</v>
+        <v>0.07499715074964897</v>
       </c>
       <c r="F2">
-        <v>2.4604242960541</v>
+        <v>0.703867746715062</v>
       </c>
       <c r="G2">
-        <v>0.0008127981886737164</v>
+        <v>0.0008001339932812926</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09510790995089735</v>
+        <v>0.06882588695344438</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6211662076884465</v>
+        <v>0.6915375429225605</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.759604055360526</v>
+        <v>1.621527965926674</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166963113107727</v>
+        <v>2.182318179963772</v>
       </c>
       <c r="C3">
-        <v>0.4992396940383799</v>
+        <v>0.5174734444742626</v>
       </c>
       <c r="D3">
-        <v>0.008149692676596487</v>
+        <v>0.1066986615318939</v>
       </c>
       <c r="E3">
-        <v>0.04074254116505927</v>
+        <v>0.07107054594976958</v>
       </c>
       <c r="F3">
-        <v>2.270273786935462</v>
+        <v>0.6772604628362942</v>
       </c>
       <c r="G3">
-        <v>0.0008212414171393505</v>
+        <v>0.0008048389001364035</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09081606769922956</v>
+        <v>0.06797435720904232</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5408984744333765</v>
+        <v>0.601953293340209</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.621900938997399</v>
+        <v>1.578553136202714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.962968007637073</v>
+        <v>1.980943235588711</v>
       </c>
       <c r="C4">
-        <v>0.4511222472069107</v>
+        <v>0.4727151787537025</v>
       </c>
       <c r="D4">
-        <v>0.007833087788126747</v>
+        <v>0.1002643777503494</v>
       </c>
       <c r="E4">
-        <v>0.03959587270056808</v>
+        <v>0.06876573194679736</v>
       </c>
       <c r="F4">
-        <v>2.158517980529453</v>
+        <v>0.6628085804996289</v>
       </c>
       <c r="G4">
-        <v>0.0008265626344043312</v>
+        <v>0.0008078195435744442</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08834359126008451</v>
+        <v>0.0676129639126799</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4924156375166788</v>
+        <v>0.5471723122943004</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.541059849602163</v>
+        <v>1.557400940211181</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.880482704499116</v>
+        <v>1.89896140882243</v>
       </c>
       <c r="C5">
-        <v>0.4316425138731006</v>
+        <v>0.4544760867575803</v>
       </c>
       <c r="D5">
-        <v>0.007705280149277627</v>
+        <v>0.09765988116643598</v>
       </c>
       <c r="E5">
-        <v>0.03914164806171883</v>
+        <v>0.06785184976252978</v>
       </c>
       <c r="F5">
-        <v>2.114119715644492</v>
+        <v>0.657367487012813</v>
       </c>
       <c r="G5">
-        <v>0.0008287671507969111</v>
+        <v>0.00080905777131038</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08737395552286742</v>
+        <v>0.06750442291640724</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4728349137929371</v>
+        <v>0.5248945065600239</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.508963454070553</v>
+        <v>1.550024973526263</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.866822140179636</v>
+        <v>1.885352253915784</v>
       </c>
       <c r="C6">
-        <v>0.4284150073426929</v>
+        <v>0.4514473349492505</v>
       </c>
       <c r="D6">
-        <v>0.007684127191403434</v>
+        <v>0.09722842588898573</v>
       </c>
       <c r="E6">
-        <v>0.03906698922891394</v>
+        <v>0.06770159345973426</v>
       </c>
       <c r="F6">
-        <v>2.106813314701782</v>
+        <v>0.656490335943424</v>
       </c>
       <c r="G6">
-        <v>0.0008291354330115686</v>
+        <v>0.0008092648171711731</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08721515518213963</v>
+        <v>0.06748868621249215</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4695935085218323</v>
+        <v>0.5211977724370342</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.503682654407385</v>
+        <v>1.548873271035376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.961853103452029</v>
+        <v>1.979837319996022</v>
       </c>
       <c r="C7">
-        <v>0.4508590470893523</v>
+        <v>0.4724692071358731</v>
       </c>
       <c r="D7">
-        <v>0.007831359398142723</v>
+        <v>0.1002291834166229</v>
       </c>
       <c r="E7">
-        <v>0.03958969509149846</v>
+        <v>0.06875330609731733</v>
       </c>
       <c r="F7">
-        <v>2.157914724847345</v>
+        <v>0.6627334185632208</v>
       </c>
       <c r="G7">
-        <v>0.0008265922172038759</v>
+        <v>0.0008078361465687983</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08833036467630251</v>
+        <v>0.0676113456714944</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4921508824596827</v>
+        <v>0.5468716935551967</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.540623665124158</v>
+        <v>1.557296522555532</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.387136226938196</v>
+        <v>2.397575136155638</v>
       </c>
       <c r="C8">
-        <v>0.5510929484595408</v>
+        <v>0.5652537165230456</v>
       </c>
       <c r="D8">
-        <v>0.008492082511088128</v>
+        <v>0.1136284530624039</v>
       </c>
       <c r="E8">
-        <v>0.0420131243544315</v>
+        <v>0.07362039761622441</v>
       </c>
       <c r="F8">
-        <v>2.393751873566885</v>
+        <v>0.6942862930311051</v>
       </c>
       <c r="G8">
-        <v>0.0008156819851653632</v>
+        <v>0.0008017375016546313</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09359242250840083</v>
+        <v>0.06849761439414337</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5933075788470035</v>
+        <v>0.6605958421832199</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.711300322388809</v>
+        <v>1.605578905406986</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.249921556454751</v>
+        <v>3.222112564752592</v>
       </c>
       <c r="C9">
-        <v>0.7537130470965394</v>
+        <v>0.7477427643987937</v>
       </c>
       <c r="D9">
-        <v>0.009838812760943227</v>
+        <v>0.1405700044766292</v>
       </c>
       <c r="E9">
-        <v>0.04724647533354442</v>
+        <v>0.08407167322652143</v>
       </c>
       <c r="F9">
-        <v>2.901546820105978</v>
+        <v>0.772361749233454</v>
       </c>
       <c r="G9">
-        <v>0.0007952939662739692</v>
+        <v>0.0007904822752290379</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1053521528598367</v>
+        <v>0.07160630239940602</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7993064898868951</v>
+        <v>0.8859046869907914</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079707092247077</v>
+        <v>1.745278919381292</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.909556351554954</v>
+        <v>3.833817960871102</v>
       </c>
       <c r="C10">
-        <v>0.9082249250334939</v>
+        <v>0.8826510092532658</v>
       </c>
       <c r="D10">
-        <v>0.01087380992322728</v>
+        <v>0.1608740113847773</v>
       </c>
       <c r="E10">
-        <v>0.05145088374196405</v>
+        <v>0.09240001555872368</v>
       </c>
       <c r="F10">
-        <v>3.311103242132361</v>
+        <v>0.8414529053121811</v>
       </c>
       <c r="G10">
-        <v>0.0007808036463028772</v>
+        <v>0.0007826061651286679</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1151036944481021</v>
+        <v>0.07485942188309735</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9572990566521469</v>
+        <v>1.053630636205376</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.377613138384177</v>
+        <v>1.880554311197869</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.217349134979941</v>
+        <v>4.114032435659965</v>
       </c>
       <c r="C11">
-        <v>0.9802509374989938</v>
+        <v>0.9443296572093516</v>
       </c>
       <c r="D11">
-        <v>0.0113587625172471</v>
+        <v>0.1702468645529081</v>
       </c>
       <c r="E11">
-        <v>0.05345862488240272</v>
+        <v>0.09635322832840032</v>
       </c>
       <c r="F11">
-        <v>3.507625232719704</v>
+        <v>0.8758783694133854</v>
       </c>
       <c r="G11">
-        <v>0.0007742857657431183</v>
+        <v>0.0007790998354242612</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1198413219118066</v>
+        <v>0.07658200365374057</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.03113232789832</v>
+        <v>1.130602605347008</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.520778646279155</v>
+        <v>1.950436443986149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.335216368984163</v>
+        <v>4.220480360094655</v>
       </c>
       <c r="C12">
-        <v>1.007824439734691</v>
+        <v>0.9677412189128063</v>
       </c>
       <c r="D12">
-        <v>0.01154487572767238</v>
+        <v>0.1738179976031802</v>
       </c>
       <c r="E12">
-        <v>0.05423420948586255</v>
+        <v>0.09787597805096837</v>
       </c>
       <c r="F12">
-        <v>3.583731773347267</v>
+        <v>0.8893857753171943</v>
       </c>
       <c r="G12">
-        <v>0.0007718251777102392</v>
+        <v>0.0007777823199491274</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1216844835957929</v>
+        <v>0.07727213015107992</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.059422742849634</v>
+        <v>1.159863912261358</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.576257892139068</v>
+        <v>1.978213202987405</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.309769645449023</v>
+        <v>4.197538957635288</v>
       </c>
       <c r="C13">
-        <v>1.001871849632153</v>
+        <v>0.9626964815476811</v>
       </c>
       <c r="D13">
-        <v>0.0115046749843124</v>
+        <v>0.1730478817806329</v>
       </c>
       <c r="E13">
-        <v>0.0540664651543068</v>
+        <v>0.09754684627645815</v>
       </c>
       <c r="F13">
-        <v>3.567261985189162</v>
+        <v>0.8864550752728633</v>
       </c>
       <c r="G13">
-        <v>0.0007723548241845429</v>
+        <v>0.000778065627014227</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1212852410291418</v>
+        <v>0.07712176785722846</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.053314302141771</v>
+        <v>1.153556623679364</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.564250271041303</v>
+        <v>1.972170627444342</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.227018575551369</v>
+        <v>4.122782877388772</v>
       </c>
       <c r="C14">
-        <v>0.9825131326456358</v>
+        <v>0.9462545684415318</v>
       </c>
       <c r="D14">
-        <v>0.01137402177328006</v>
+        <v>0.1705402128379347</v>
       </c>
       <c r="E14">
-        <v>0.05352211612330393</v>
+        <v>0.09647797719004814</v>
       </c>
       <c r="F14">
-        <v>3.513851372930077</v>
+        <v>0.8769799439051411</v>
       </c>
       <c r="G14">
-        <v>0.0007740831983559702</v>
+        <v>0.0007789912416174261</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1199919397035032</v>
+        <v>0.0766380051886415</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.033452850428958</v>
+        <v>1.133007569634387</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.525316561967173</v>
+        <v>1.952694635182127</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.17650859371571</v>
+        <v>4.077038251117642</v>
       </c>
       <c r="C15">
-        <v>0.9706958428371308</v>
+        <v>0.9361909497152396</v>
       </c>
       <c r="D15">
-        <v>0.01129432945752562</v>
+        <v>0.169007105847669</v>
       </c>
       <c r="E15">
-        <v>0.05319073021673049</v>
+        <v>0.09582668259689697</v>
       </c>
       <c r="F15">
-        <v>3.481362661672421</v>
+        <v>0.8712387785927689</v>
       </c>
       <c r="G15">
-        <v>0.0007751427693874964</v>
+        <v>0.0007795595195468889</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1192063366013159</v>
+        <v>0.07634670286116574</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.021331865945477</v>
+        <v>1.120436015639385</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.501638665530791</v>
+        <v>1.940939682023355</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.889613444438794</v>
+        <v>3.81554920637592</v>
       </c>
       <c r="C16">
-        <v>0.9035568543283716</v>
+        <v>0.8786272740849483</v>
       </c>
       <c r="D16">
-        <v>0.01084243711018118</v>
+        <v>0.1602644044856874</v>
       </c>
       <c r="E16">
-        <v>0.05132172103049193</v>
+        <v>0.09214515050101824</v>
       </c>
       <c r="F16">
-        <v>3.298483669983824</v>
+        <v>0.8392667833117855</v>
       </c>
       <c r="G16">
-        <v>0.0007812308410339281</v>
+        <v>0.0007828367894374172</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1148006234033474</v>
+        <v>0.07475197546867207</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9525174167936328</v>
+        <v>1.048615289404928</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.368424497210441</v>
+        <v>1.876164794167067</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.715726024419325</v>
+        <v>3.655671655800802</v>
       </c>
       <c r="C17">
-        <v>0.8628470898998444</v>
+        <v>0.8434001981721337</v>
       </c>
       <c r="D17">
-        <v>0.01056912098738927</v>
+        <v>0.1549375101970156</v>
       </c>
       <c r="E17">
-        <v>0.0502005977885851</v>
+        <v>0.08993024107655145</v>
       </c>
       <c r="F17">
-        <v>3.189056230733058</v>
+        <v>0.8204480048888456</v>
       </c>
       <c r="G17">
-        <v>0.0007849825537756421</v>
+        <v>0.0007848663775250014</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1121789735898631</v>
+        <v>0.07383783234639907</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9108374618724326</v>
+        <v>1.004739493779425</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.288771741497115</v>
+        <v>1.838642938996031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.616423778628302</v>
+        <v>3.563893856019604</v>
       </c>
       <c r="C18">
-        <v>0.8395921807744173</v>
+        <v>0.8231668186071204</v>
       </c>
       <c r="D18">
-        <v>0.01041321539232776</v>
+        <v>0.1518863226913538</v>
       </c>
       <c r="E18">
-        <v>0.04956460382452654</v>
+        <v>0.08867164331509159</v>
       </c>
       <c r="F18">
-        <v>3.127063012882132</v>
+        <v>0.809903285915297</v>
       </c>
       <c r="G18">
-        <v>0.0007871475921667972</v>
+        <v>0.0007860409966151728</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1106990726307089</v>
+        <v>0.07333469929129421</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8870455864106361</v>
+        <v>0.979565504688388</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.243666168594743</v>
+        <v>1.81783944489311</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.582918498344611</v>
+        <v>3.532848652472069</v>
       </c>
       <c r="C19">
-        <v>0.831744611540131</v>
+        <v>0.8163206893434278</v>
       </c>
       <c r="D19">
-        <v>0.01036063943376497</v>
+        <v>0.1508553599059326</v>
       </c>
       <c r="E19">
-        <v>0.04935074060844968</v>
+        <v>0.08824808093052994</v>
       </c>
       <c r="F19">
-        <v>3.106229524402977</v>
+        <v>0.806379822905285</v>
       </c>
       <c r="G19">
-        <v>0.0007878819514116374</v>
+        <v>0.0007864399703357559</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1102026496715425</v>
+        <v>0.073168153455061</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8790198130841702</v>
+        <v>0.9710522150214942</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.228511190140821</v>
+        <v>1.810926054949675</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.734161442425204</v>
+        <v>3.672671916080219</v>
       </c>
       <c r="C20">
-        <v>0.8671637933273075</v>
+        <v>0.8471471756246274</v>
       </c>
       <c r="D20">
-        <v>0.01059807863711448</v>
+        <v>0.1555032371934146</v>
       </c>
       <c r="E20">
-        <v>0.05031901663484462</v>
+        <v>0.09016441774111428</v>
       </c>
       <c r="F20">
-        <v>3.20060550674188</v>
+        <v>0.8224221021658593</v>
       </c>
       <c r="G20">
-        <v>0.000784582457913301</v>
+        <v>0.0007846495789357898</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1124551151968376</v>
+        <v>0.07393277904067119</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9152552607639706</v>
+        <v>1.009403590469127</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.297176444562396</v>
+        <v>1.842555880055272</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.251287192096527</v>
+        <v>4.144730932164634</v>
       </c>
       <c r="C21">
-        <v>0.9881907231993807</v>
+        <v>0.9510823672712831</v>
       </c>
       <c r="D21">
-        <v>0.01141232673642278</v>
+        <v>0.171276164788452</v>
       </c>
       <c r="E21">
-        <v>0.05368157556139508</v>
+        <v>0.09679121356432319</v>
       </c>
       <c r="F21">
-        <v>3.529491659066423</v>
+        <v>0.8797498914143631</v>
       </c>
       <c r="G21">
-        <v>0.0007735753529792851</v>
+        <v>0.0007787190941128763</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.120370430746803</v>
+        <v>0.07677904707292527</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.039277221419368</v>
+        <v>1.139040096744637</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.536716553660227</v>
+        <v>1.958378591430829</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.597025339272932</v>
+        <v>4.455241867008851</v>
       </c>
       <c r="C22">
-        <v>1.069058437675125</v>
+        <v>1.019337523754643</v>
       </c>
       <c r="D22">
-        <v>0.01195916726782364</v>
+        <v>0.1817131292383891</v>
       </c>
       <c r="E22">
-        <v>0.05596926996543061</v>
+        <v>0.1012734107942599</v>
       </c>
       <c r="F22">
-        <v>3.754400454693808</v>
+        <v>0.9199848609496968</v>
       </c>
       <c r="G22">
-        <v>0.0007664241209589534</v>
+        <v>0.0007749025643487817</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1258331322524739</v>
+        <v>0.07886123588623661</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.122292042119199</v>
+        <v>1.224436695218515</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.700740644134228</v>
+        <v>2.041793842402825</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.411713448659668</v>
+        <v>4.289313863995574</v>
       </c>
       <c r="C23">
-        <v>1.025717873455562</v>
+        <v>0.982874640022203</v>
       </c>
       <c r="D23">
-        <v>0.01166579487624197</v>
+        <v>0.176130192117455</v>
       </c>
       <c r="E23">
-        <v>0.05473945282188453</v>
+        <v>0.09886660992390262</v>
       </c>
       <c r="F23">
-        <v>3.633370342409478</v>
+        <v>0.8982431690231465</v>
       </c>
       <c r="G23">
-        <v>0.0007702380819243348</v>
+        <v>0.0007769343484787095</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1228889808744071</v>
+        <v>0.07772859236035146</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.07778811457738</v>
+        <v>1.178791468760863</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.612453392678063</v>
+        <v>1.996527127795218</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.725824724375741</v>
+        <v>3.664985673013405</v>
       </c>
       <c r="C24">
-        <v>0.8652117491047875</v>
+        <v>0.8454531083251879</v>
       </c>
       <c r="D24">
-        <v>0.01058498309237521</v>
+        <v>0.155247436939959</v>
       </c>
       <c r="E24">
-        <v>0.0502654529477482</v>
+        <v>0.09005850058030163</v>
       </c>
       <c r="F24">
-        <v>3.195381235658886</v>
+        <v>0.8215287609642701</v>
       </c>
       <c r="G24">
-        <v>0.0007847633157732398</v>
+        <v>0.0007847475692677103</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1123301869042237</v>
+        <v>0.07388978402461888</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9132574464965657</v>
+        <v>1.007294795420719</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.293374548041868</v>
+        <v>1.84078445475771</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.012643318111145</v>
+        <v>2.998218938736613</v>
       </c>
       <c r="C25">
-        <v>0.6980626552280285</v>
+        <v>0.6982673851094319</v>
       </c>
       <c r="D25">
-        <v>0.009467705511220004</v>
+        <v>0.1332000450022406</v>
       </c>
       <c r="E25">
-        <v>0.04577282333834276</v>
+        <v>0.08113764434742166</v>
       </c>
       <c r="F25">
-        <v>2.758469889017334</v>
+        <v>0.749322763711433</v>
       </c>
       <c r="G25">
-        <v>0.0008007137703482206</v>
+        <v>0.0007934553175224169</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1019940721068338</v>
+        <v>0.07060537328804628</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7425694789284805</v>
+        <v>0.824628871833724</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.975790018257968</v>
+        <v>1.702153781674582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.511032400900774</v>
+        <v>2.525461161747103</v>
       </c>
       <c r="C2">
-        <v>0.590412876225372</v>
+        <v>0.6338603946557271</v>
       </c>
       <c r="D2">
-        <v>0.117300427808928</v>
+        <v>0.1849537115298006</v>
       </c>
       <c r="E2">
-        <v>0.07499715074964897</v>
+        <v>0.1165924632437907</v>
       </c>
       <c r="F2">
-        <v>0.703867746715062</v>
+        <v>0.4819123575611144</v>
       </c>
       <c r="G2">
-        <v>0.0008001339932812926</v>
+        <v>0.233567942271975</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001388164355333732</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06882588695344438</v>
+        <v>0.221580470366618</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1351075273517441</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1102813755105032</v>
       </c>
       <c r="M2">
-        <v>0.6915375429225605</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.621527965926674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7248743525931403</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9084423104503827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.182318179963772</v>
+        <v>2.205004594806951</v>
       </c>
       <c r="C3">
-        <v>0.5174734444742626</v>
+        <v>0.5568882419438239</v>
       </c>
       <c r="D3">
-        <v>0.1066986615318939</v>
+        <v>0.1690443895414404</v>
       </c>
       <c r="E3">
-        <v>0.07107054594976958</v>
+        <v>0.1090379412761244</v>
       </c>
       <c r="F3">
-        <v>0.6772604628362942</v>
+        <v>0.464406497257805</v>
       </c>
       <c r="G3">
-        <v>0.0008048389001364035</v>
+        <v>0.2246601262020107</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.9653782357707E-06</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06797435720904232</v>
+        <v>0.2226073919580358</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1455528724059167</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1048955886543155</v>
       </c>
       <c r="M3">
-        <v>0.601953293340209</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.578553136202714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6320247905543255</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8913876421624849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980943235588711</v>
+        <v>2.007915616599689</v>
       </c>
       <c r="C4">
-        <v>0.4727151787537025</v>
+        <v>0.5095458571365441</v>
       </c>
       <c r="D4">
-        <v>0.1002643777503494</v>
+        <v>0.1592933651655386</v>
       </c>
       <c r="E4">
-        <v>0.06876573194679736</v>
+        <v>0.1043917914951784</v>
       </c>
       <c r="F4">
-        <v>0.6628085804996289</v>
+        <v>0.4544374965325133</v>
       </c>
       <c r="G4">
-        <v>0.0008078195435744442</v>
+        <v>0.2198249247556987</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001154476414658712</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0676129639126799</v>
+        <v>0.2236480547329336</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1524885069235351</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.101559334371327</v>
       </c>
       <c r="M4">
-        <v>0.5471723122943004</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.557400940211181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5749654377988591</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8831110694183621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.89896140882243</v>
+        <v>1.927505883247136</v>
       </c>
       <c r="C5">
-        <v>0.4544760867575803</v>
+        <v>0.4902306220054982</v>
       </c>
       <c r="D5">
-        <v>0.09765988116643598</v>
+        <v>0.1553231777132282</v>
       </c>
       <c r="E5">
-        <v>0.06785184976252978</v>
+        <v>0.1024958364105117</v>
       </c>
       <c r="F5">
-        <v>0.657367487012813</v>
+        <v>0.4505623920789361</v>
       </c>
       <c r="G5">
-        <v>0.00080905777131038</v>
+        <v>0.2180058135898477</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0002069956328412115</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06750442291640724</v>
+        <v>0.2241716167918071</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1554412151988442</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1001917166807971</v>
       </c>
       <c r="M5">
-        <v>0.5248945065600239</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.550024973526263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5516967076825239</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8802652128951109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.885352253915784</v>
+        <v>1.914147874969018</v>
       </c>
       <c r="C6">
-        <v>0.4514473349492505</v>
+        <v>0.4870218967228084</v>
       </c>
       <c r="D6">
-        <v>0.09722842588898573</v>
+        <v>0.1546641122082093</v>
       </c>
       <c r="E6">
-        <v>0.06770159345973426</v>
+        <v>0.102180837163516</v>
       </c>
       <c r="F6">
-        <v>0.656490335943424</v>
+        <v>0.4499300006265869</v>
       </c>
       <c r="G6">
-        <v>0.0008092648171711731</v>
+        <v>0.2177126539234422</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0002249042342312713</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06748868621249215</v>
+        <v>0.2242644584437912</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1559390028047076</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09996411801555283</v>
       </c>
       <c r="M6">
-        <v>0.5211977724370342</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.548873271035376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5478318348138771</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8798237704868797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979837319996022</v>
+        <v>2.006831580164686</v>
       </c>
       <c r="C7">
-        <v>0.4724692071358731</v>
+        <v>0.5092854605921673</v>
       </c>
       <c r="D7">
-        <v>0.1002291834166229</v>
+        <v>0.1592398091216438</v>
       </c>
       <c r="E7">
-        <v>0.06875330609731733</v>
+        <v>0.104366233446779</v>
       </c>
       <c r="F7">
-        <v>0.6627334185632208</v>
+        <v>0.4543844882389294</v>
       </c>
       <c r="G7">
-        <v>0.0008078361465687983</v>
+        <v>0.2197997897109119</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001164991092347245</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0676113456714944</v>
+        <v>0.2236547175852763</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1525278228365181</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1015409237518412</v>
       </c>
       <c r="M7">
-        <v>0.5468716935551967</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.557296522555532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5746517000148827</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8830705881544105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.397575136155638</v>
+        <v>2.415028021746593</v>
       </c>
       <c r="C8">
-        <v>0.5652537165230456</v>
+        <v>0.6073356980232631</v>
       </c>
       <c r="D8">
-        <v>0.1136284530624039</v>
+        <v>0.1794639930160571</v>
       </c>
       <c r="E8">
-        <v>0.07362039761622441</v>
+        <v>0.1139888248709511</v>
       </c>
       <c r="F8">
-        <v>0.6942862930311051</v>
+        <v>0.4757091673152942</v>
       </c>
       <c r="G8">
-        <v>0.0008017375016546313</v>
+        <v>0.2303598505144251</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.032250562586604E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06849761439414337</v>
+        <v>0.221847192210717</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1385976972292386</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1084300294468967</v>
       </c>
       <c r="M8">
-        <v>0.6605958421832199</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.605578905406986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6928674410968654</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9020908940035781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.222112564752592</v>
+        <v>3.213534966262898</v>
       </c>
       <c r="C9">
-        <v>0.7477427643987937</v>
+        <v>0.799097369372447</v>
       </c>
       <c r="D9">
-        <v>0.1405700044766292</v>
+        <v>0.2193076271650938</v>
       </c>
       <c r="E9">
-        <v>0.08407167322652143</v>
+        <v>0.1328312740848254</v>
       </c>
       <c r="F9">
-        <v>0.772361749233454</v>
+        <v>0.5241241529079161</v>
       </c>
       <c r="G9">
-        <v>0.0007904822752290379</v>
+        <v>0.25648704328853</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001589650976012935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07160630239940602</v>
+        <v>0.2217282501566658</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.115653152295387</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1217390292191602</v>
       </c>
       <c r="M9">
-        <v>0.8859046869907914</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.745278919381292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9245097845902137</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9579854833683186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.833817960871102</v>
+        <v>3.807039301411919</v>
       </c>
       <c r="C10">
-        <v>0.8826510092532658</v>
+        <v>0.939919697798075</v>
       </c>
       <c r="D10">
-        <v>0.1608740113847773</v>
+        <v>0.2436722555715107</v>
       </c>
       <c r="E10">
-        <v>0.09240001555872368</v>
+        <v>0.1413277786471987</v>
       </c>
       <c r="F10">
-        <v>0.8414529053121811</v>
+        <v>0.5543112238475985</v>
       </c>
       <c r="G10">
-        <v>0.0007826061651286679</v>
+        <v>0.2741945843373372</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003948741513972287</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07485942188309735</v>
+        <v>0.2212727179824583</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1002583303658877</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1259355978191117</v>
       </c>
       <c r="M10">
-        <v>1.053630636205376</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.880554311197869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.082540635976798</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9950828848865569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.114032435659965</v>
+        <v>4.140408646523781</v>
       </c>
       <c r="C11">
-        <v>0.9443296572093516</v>
+        <v>1.004521476643077</v>
       </c>
       <c r="D11">
-        <v>0.1702468645529081</v>
+        <v>0.2123433937972408</v>
       </c>
       <c r="E11">
-        <v>0.09635322832840032</v>
+        <v>0.1047809878507699</v>
       </c>
       <c r="F11">
-        <v>0.8758783694133854</v>
+        <v>0.4850845229193155</v>
       </c>
       <c r="G11">
-        <v>0.0007790998354242612</v>
+        <v>0.2381965488036286</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02252767008848977</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07658200365374057</v>
+        <v>0.1987696861434287</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.08218854254960561</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09281505095317222</v>
       </c>
       <c r="M11">
-        <v>1.130602605347008</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.950436443986149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.047555490715901</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8718449603274792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.220480360094655</v>
+        <v>4.299156134135785</v>
       </c>
       <c r="C12">
-        <v>0.9677412189128063</v>
+        <v>1.029479747084565</v>
       </c>
       <c r="D12">
-        <v>0.1738179976031802</v>
+        <v>0.1830206763294484</v>
       </c>
       <c r="E12">
-        <v>0.09787597805096837</v>
+        <v>0.08059218336624951</v>
       </c>
       <c r="F12">
-        <v>0.8893857753171943</v>
+        <v>0.4234699939314623</v>
       </c>
       <c r="G12">
-        <v>0.0007777823199491274</v>
+        <v>0.2056383247056885</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06094201365311136</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07727213015107992</v>
+        <v>0.1804557644724341</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.07190201019332587</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0812880797404536</v>
       </c>
       <c r="M12">
-        <v>1.159863912261358</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.978213202987405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9851725969195968</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7645387618068327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.197538957635288</v>
+        <v>4.331051673130162</v>
       </c>
       <c r="C13">
-        <v>0.9626964815476811</v>
+        <v>1.025094396124729</v>
       </c>
       <c r="D13">
-        <v>0.1730478817806329</v>
+        <v>0.1536865242889291</v>
       </c>
       <c r="E13">
-        <v>0.09754684627645815</v>
+        <v>0.06447350320407086</v>
       </c>
       <c r="F13">
-        <v>0.8864550752728633</v>
+        <v>0.3640420458160989</v>
       </c>
       <c r="G13">
-        <v>0.000778065627014227</v>
+        <v>0.173647860120262</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.116183706650915</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07712176785722846</v>
+        <v>0.1641637291228903</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.06665910198876412</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08535760551718496</v>
       </c>
       <c r="M13">
-        <v>1.153556623679364</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.972170627444342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8986039540804143</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6625708513774669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.122782877388772</v>
+        <v>4.295773236355956</v>
       </c>
       <c r="C14">
-        <v>0.9462545684415318</v>
+        <v>1.008727148876574</v>
       </c>
       <c r="D14">
-        <v>0.1705402128379347</v>
+        <v>0.1336368466591296</v>
       </c>
       <c r="E14">
-        <v>0.09647797719004814</v>
+        <v>0.05799997007147617</v>
       </c>
       <c r="F14">
-        <v>0.8769799439051411</v>
+        <v>0.3242317849880934</v>
       </c>
       <c r="G14">
-        <v>0.0007789912416174261</v>
+        <v>0.1519292968894774</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1650960943993312</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0766380051886415</v>
+        <v>0.1538484657072487</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.06548305970574586</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09736355970077426</v>
       </c>
       <c r="M14">
-        <v>1.133007569634387</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.952694635182127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8277758368921013</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5948588269774149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.077038251117642</v>
+        <v>4.259607677266786</v>
       </c>
       <c r="C15">
-        <v>0.9361909497152396</v>
+        <v>0.9984475805315753</v>
       </c>
       <c r="D15">
-        <v>0.169007105847669</v>
+        <v>0.1285049838879715</v>
       </c>
       <c r="E15">
-        <v>0.09582668259689697</v>
+        <v>0.05704596056526023</v>
       </c>
       <c r="F15">
-        <v>0.8712387785927689</v>
+        <v>0.3146414002640086</v>
       </c>
       <c r="G15">
-        <v>0.0007795595195468889</v>
+        <v>0.1465766525677381</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1774135421526495</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07634670286116574</v>
+        <v>0.1516959537634435</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.06601600778615735</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1012892067706481</v>
       </c>
       <c r="M15">
-        <v>1.120436015639385</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.940939682023355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.8054746812921749</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5789650103938726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.81554920637592</v>
+        <v>3.994705721925754</v>
       </c>
       <c r="C16">
-        <v>0.8786272740849483</v>
+        <v>0.9384102267389096</v>
       </c>
       <c r="D16">
-        <v>0.1602644044856874</v>
+        <v>0.1247485929742425</v>
       </c>
       <c r="E16">
-        <v>0.09214515050101824</v>
+        <v>0.05701753739438409</v>
       </c>
       <c r="F16">
-        <v>0.8392667833117855</v>
+        <v>0.3139801123937147</v>
       </c>
       <c r="G16">
-        <v>0.0007828367894374172</v>
+        <v>0.1452113039761898</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1637203647700147</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07475197546867207</v>
+        <v>0.1549232034475807</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.07277817702617817</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09830569031485936</v>
       </c>
       <c r="M16">
-        <v>1.048615289404928</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.876164794167067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7575715261310023</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.582615014556751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.655671655800802</v>
+        <v>3.810976277817417</v>
       </c>
       <c r="C17">
-        <v>0.8434001981721337</v>
+        <v>0.9011871570188532</v>
       </c>
       <c r="D17">
-        <v>0.1549375101970156</v>
+        <v>0.1321824465128429</v>
       </c>
       <c r="E17">
-        <v>0.08993024107655145</v>
+        <v>0.05963849371059737</v>
       </c>
       <c r="F17">
-        <v>0.8204480048888456</v>
+        <v>0.3343544189448551</v>
       </c>
       <c r="G17">
-        <v>0.0007848663775250014</v>
+        <v>0.1556532015727328</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1254567786162823</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07383783234639907</v>
+        <v>0.1629022672397227</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.07864912014619074</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08821649928791686</v>
       </c>
       <c r="M17">
-        <v>1.004739493779425</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.838642938996031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7579702206706855</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6213328752973126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.563893856019604</v>
+        <v>3.676693635818367</v>
       </c>
       <c r="C18">
-        <v>0.8231668186071204</v>
+        <v>0.879331038622098</v>
       </c>
       <c r="D18">
-        <v>0.1518863226913538</v>
+        <v>0.1513383679720022</v>
       </c>
       <c r="E18">
-        <v>0.08867164331509159</v>
+        <v>0.06900284065965767</v>
       </c>
       <c r="F18">
-        <v>0.809903285915297</v>
+        <v>0.3768914972473212</v>
       </c>
       <c r="G18">
-        <v>0.0007860409966151728</v>
+        <v>0.1782580463681853</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07255296450365734</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07333469929129421</v>
+        <v>0.1761901435015503</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.08519406880527125</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07918095536258374</v>
       </c>
       <c r="M18">
-        <v>0.979565504688388</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.81783944489311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8006237772840947</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.697016211188398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.532848652472069</v>
+        <v>3.592773227903933</v>
       </c>
       <c r="C19">
-        <v>0.8163206893434278</v>
+        <v>0.8714605911115143</v>
       </c>
       <c r="D19">
-        <v>0.1508553599059326</v>
+        <v>0.1805643696060883</v>
       </c>
       <c r="E19">
-        <v>0.08824808093052994</v>
+        <v>0.08936985609605053</v>
       </c>
       <c r="F19">
-        <v>0.806379822905285</v>
+        <v>0.4373081259735585</v>
       </c>
       <c r="G19">
-        <v>0.0007864399703357559</v>
+        <v>0.2106083657779578</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02767818575276948</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.073168153455061</v>
+        <v>0.1934438410931847</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.09310077810682227</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08392737039130971</v>
       </c>
       <c r="M19">
-        <v>0.9710522150214942</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.810926054949675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.875760541906871</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8017223329014769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.672671916080219</v>
+        <v>3.651456246110058</v>
       </c>
       <c r="C20">
-        <v>0.8471471756246274</v>
+        <v>0.9029446581001253</v>
       </c>
       <c r="D20">
-        <v>0.1555032371934146</v>
+        <v>0.2370522041230601</v>
       </c>
       <c r="E20">
-        <v>0.09016441774111428</v>
+        <v>0.1388648136544433</v>
       </c>
       <c r="F20">
-        <v>0.8224221021658593</v>
+        <v>0.5456319796677462</v>
       </c>
       <c r="G20">
-        <v>0.0007846495789357898</v>
+        <v>0.2690347877044985</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003221691703391816</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07393277904067119</v>
+        <v>0.2211083864814896</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1040098606669222</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1245917368833176</v>
       </c>
       <c r="M20">
-        <v>1.009403590469127</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.842555880055272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.040527261394807</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9836681054558056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.144730932164634</v>
+        <v>4.096206580412684</v>
       </c>
       <c r="C21">
-        <v>0.9510823672712831</v>
+        <v>1.010960540613468</v>
       </c>
       <c r="D21">
-        <v>0.171276164788452</v>
+        <v>0.2636930439917506</v>
       </c>
       <c r="E21">
-        <v>0.09679121356432319</v>
+        <v>0.1537313323640213</v>
       </c>
       <c r="F21">
-        <v>0.8797498914143631</v>
+        <v>0.5859062244537014</v>
       </c>
       <c r="G21">
-        <v>0.0007787190941128763</v>
+        <v>0.2922976769935559</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005446069296639489</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07677904707292527</v>
+        <v>0.2257609912191469</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.09562921768395327</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.136333231693218</v>
       </c>
       <c r="M21">
-        <v>1.139040096744637</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.958378591430829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.18106704163543</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.043113451246484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.455241867008851</v>
+        <v>4.390758489484028</v>
       </c>
       <c r="C22">
-        <v>1.019337523754643</v>
+        <v>1.081628278263338</v>
       </c>
       <c r="D22">
-        <v>0.1817131292383891</v>
+        <v>0.2785716056850163</v>
       </c>
       <c r="E22">
-        <v>0.1012734107942599</v>
+        <v>0.1607279084381332</v>
       </c>
       <c r="F22">
-        <v>0.9199848609496968</v>
+        <v>0.6081726100930993</v>
       </c>
       <c r="G22">
-        <v>0.0007749025643487817</v>
+        <v>0.3056631636155203</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.007179326083592369</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07886123588623661</v>
+        <v>0.2279301124365674</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.09001877739621733</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1411946938545157</v>
       </c>
       <c r="M22">
-        <v>1.224436695218515</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.041793842402825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.266782688396347</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.076233608394375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.289313863995574</v>
+        <v>4.233515272119632</v>
       </c>
       <c r="C23">
-        <v>0.982874640022203</v>
+        <v>1.043905243779534</v>
       </c>
       <c r="D23">
-        <v>0.176130192117455</v>
+        <v>0.2706249957862212</v>
       </c>
       <c r="E23">
-        <v>0.09886660992390262</v>
+        <v>0.1569913695364704</v>
       </c>
       <c r="F23">
-        <v>0.8982431690231465</v>
+        <v>0.5961897238456757</v>
       </c>
       <c r="G23">
-        <v>0.0007769343484787095</v>
+        <v>0.2984446820180864</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.006227569305416403</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07772859236035146</v>
+        <v>0.2267243079890733</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.09295114181540498</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.138599570789264</v>
       </c>
       <c r="M23">
-        <v>1.178791468760863</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.996527127795218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.221018437195013</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.058276310158334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.664985673013405</v>
+        <v>3.638635432037063</v>
       </c>
       <c r="C24">
-        <v>0.8454531083251879</v>
+        <v>0.9011490002560265</v>
       </c>
       <c r="D24">
-        <v>0.155247436939959</v>
+        <v>0.2406441503772783</v>
       </c>
       <c r="E24">
-        <v>0.09005850058030163</v>
+        <v>0.1428853431054407</v>
       </c>
       <c r="F24">
-        <v>0.8215287609642701</v>
+        <v>0.5529062370176945</v>
       </c>
       <c r="G24">
-        <v>0.0007847475692677103</v>
+        <v>0.2729056319675394</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003186926858770311</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07388978402461888</v>
+        <v>0.223183500459136</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1053789035626309</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1287757006972718</v>
       </c>
       <c r="M24">
-        <v>1.007294795420719</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.84078445475771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.048009934225547</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9962159780968136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.998218938736613</v>
+        <v>2.997628647895056</v>
       </c>
       <c r="C25">
-        <v>0.6982673851094319</v>
+        <v>0.7472551987356724</v>
       </c>
       <c r="D25">
-        <v>0.1332000450022406</v>
+        <v>0.2085021161661018</v>
       </c>
       <c r="E25">
-        <v>0.08113764434742166</v>
+        <v>0.1277318835530181</v>
       </c>
       <c r="F25">
-        <v>0.749322763711433</v>
+        <v>0.5102602923432045</v>
       </c>
       <c r="G25">
-        <v>0.0007934553175224169</v>
+        <v>0.2487824980326039</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0009760737863266922</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07060537328804628</v>
+        <v>0.2213687641518192</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1213590398327451</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1181552906397592</v>
       </c>
       <c r="M25">
-        <v>0.824628871833724</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.702153781674582</v>
+        <v>0.8618304771396978</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9407020540187858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.525461161747103</v>
+        <v>2.523120764328894</v>
       </c>
       <c r="C2">
-        <v>0.6338603946557271</v>
+        <v>0.64782918773696</v>
       </c>
       <c r="D2">
-        <v>0.1849537115298006</v>
+        <v>0.1854176455720307</v>
       </c>
       <c r="E2">
-        <v>0.1165924632437907</v>
+        <v>0.115943228251087</v>
       </c>
       <c r="F2">
-        <v>0.4819123575611144</v>
+        <v>0.4767216908055687</v>
       </c>
       <c r="G2">
-        <v>0.233567942271975</v>
+        <v>0.2119554919412394</v>
       </c>
       <c r="H2">
-        <v>0.0001388164355333732</v>
+        <v>0.0001159196023217124</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.221580470366618</v>
+        <v>0.2594909878453677</v>
       </c>
       <c r="K2">
-        <v>0.1351075273517441</v>
+        <v>0.1319229713003587</v>
       </c>
       <c r="L2">
-        <v>0.1102813755105032</v>
+        <v>0.09520275855175697</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01963581343751253</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1091352978002753</v>
       </c>
       <c r="O2">
-        <v>0.7248743525931403</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9084423104503827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7291825572063786</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8960158412327957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.205004594806951</v>
+        <v>2.205702354852974</v>
       </c>
       <c r="C3">
-        <v>0.5568882419438239</v>
+        <v>0.5626097519363782</v>
       </c>
       <c r="D3">
-        <v>0.1690443895414404</v>
+        <v>0.1694138509830196</v>
       </c>
       <c r="E3">
-        <v>0.1090379412761244</v>
+        <v>0.1087098897162804</v>
       </c>
       <c r="F3">
-        <v>0.464406497257805</v>
+        <v>0.4609692872212676</v>
       </c>
       <c r="G3">
-        <v>0.2246601262020107</v>
+        <v>0.2044958932538918</v>
       </c>
       <c r="H3">
-        <v>3.9653782357707E-06</v>
+        <v>5.354690098213766E-06</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2226073919580358</v>
+        <v>0.2592450833255029</v>
       </c>
       <c r="K3">
-        <v>0.1455528724059167</v>
+        <v>0.1419255220425892</v>
       </c>
       <c r="L3">
-        <v>0.1048955886543155</v>
+        <v>0.1010883391346269</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02212707011411608</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1042483287431288</v>
       </c>
       <c r="O3">
-        <v>0.6320247905543255</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8913876421624849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6347683811204945</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8829157773012923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.007915616599689</v>
+        <v>2.010361127834216</v>
       </c>
       <c r="C4">
-        <v>0.5095458571365441</v>
+        <v>0.5103936495887638</v>
       </c>
       <c r="D4">
-        <v>0.1592933651655386</v>
+        <v>0.1596250323319595</v>
       </c>
       <c r="E4">
-        <v>0.1043917914951784</v>
+        <v>0.1042650380986991</v>
       </c>
       <c r="F4">
-        <v>0.4544374965325133</v>
+        <v>0.4519417682791556</v>
       </c>
       <c r="G4">
-        <v>0.2198249247556987</v>
+        <v>0.2005194048791807</v>
       </c>
       <c r="H4">
-        <v>0.0001154476414658712</v>
+        <v>0.000113009458614699</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2236480547329336</v>
+        <v>0.2593141992481165</v>
       </c>
       <c r="K4">
-        <v>0.1524885069235351</v>
+        <v>0.1484972013271566</v>
       </c>
       <c r="L4">
-        <v>0.101559334371327</v>
+        <v>0.1050357709665235</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02415726215610303</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1012174119958829</v>
       </c>
       <c r="O4">
-        <v>0.5749654377988591</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8831110694183621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.576768573802525</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8766483690470324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.927505883247136</v>
+        <v>1.930637141531435</v>
       </c>
       <c r="C5">
-        <v>0.4902306220054982</v>
+        <v>0.4891407090463247</v>
       </c>
       <c r="D5">
-        <v>0.1553231777132282</v>
+        <v>0.1556446193862371</v>
       </c>
       <c r="E5">
-        <v>0.1024958364105117</v>
+        <v>0.1024522247251198</v>
       </c>
       <c r="F5">
-        <v>0.4505623920789361</v>
+        <v>0.4484174371060519</v>
       </c>
       <c r="G5">
-        <v>0.2180058135898477</v>
+        <v>0.1990422164964158</v>
       </c>
       <c r="H5">
-        <v>0.0002069956328412115</v>
+        <v>0.0001985929621871607</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2241716167918071</v>
+        <v>0.2593959126328258</v>
       </c>
       <c r="K5">
-        <v>0.1554412151988442</v>
+        <v>0.1512794918875118</v>
       </c>
       <c r="L5">
-        <v>0.1001917166807971</v>
+        <v>0.1067282885041987</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02510756811906945</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09997408460323953</v>
       </c>
       <c r="O5">
-        <v>0.5516967076825239</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8802652128951109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5531224843666536</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8745197561531484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.914147874969018</v>
+        <v>1.917391490519122</v>
       </c>
       <c r="C6">
-        <v>0.4870218967228084</v>
+        <v>0.4856131673575987</v>
       </c>
       <c r="D6">
-        <v>0.1546641122082093</v>
+        <v>0.1549841712066211</v>
       </c>
       <c r="E6">
-        <v>0.102180837163516</v>
+        <v>0.1021511005350497</v>
       </c>
       <c r="F6">
-        <v>0.4499300006265869</v>
+        <v>0.4478413358065154</v>
       </c>
       <c r="G6">
-        <v>0.2177126539234422</v>
+        <v>0.1988053389293469</v>
       </c>
       <c r="H6">
-        <v>0.0002249042342312713</v>
+        <v>0.0002152538259514447</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2242644584437912</v>
+        <v>0.259412663865163</v>
       </c>
       <c r="K6">
-        <v>0.1559390028047076</v>
+        <v>0.1517476766321204</v>
       </c>
       <c r="L6">
-        <v>0.09996411801555283</v>
+        <v>0.1070143981712857</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02527271162097078</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09976711875944844</v>
       </c>
       <c r="O6">
-        <v>0.5478318348138771</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8798237704868797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5491953293671017</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8741913893988169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.006831580164686</v>
+        <v>2.009251243826412</v>
       </c>
       <c r="C7">
-        <v>0.5092854605921673</v>
+        <v>0.5096483135244512</v>
       </c>
       <c r="D7">
-        <v>0.1592398091216438</v>
+        <v>0.1597471445482199</v>
       </c>
       <c r="E7">
-        <v>0.104366233446779</v>
+        <v>0.1042638025483669</v>
       </c>
       <c r="F7">
-        <v>0.4543844882389294</v>
+        <v>0.4511071381958303</v>
       </c>
       <c r="G7">
-        <v>0.2197997897109119</v>
+        <v>0.2026490594513035</v>
       </c>
       <c r="H7">
-        <v>0.0001164991092347245</v>
+        <v>0.0001147031517211294</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2236547175852763</v>
+        <v>0.2559735350857721</v>
       </c>
       <c r="K7">
-        <v>0.1525278228365181</v>
+        <v>0.1483562159498826</v>
       </c>
       <c r="L7">
-        <v>0.1015409237518412</v>
+        <v>0.1049376089531684</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02415195478625032</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1011664382074748</v>
       </c>
       <c r="O7">
-        <v>0.5746517000148827</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8830705881544105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5764261466423619</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.874494602105969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.415028021746593</v>
+        <v>2.413645358249369</v>
       </c>
       <c r="C8">
-        <v>0.6073356980232631</v>
+        <v>0.6168736456218085</v>
       </c>
       <c r="D8">
-        <v>0.1794639930160571</v>
+        <v>0.1804833389716407</v>
       </c>
       <c r="E8">
-        <v>0.1139888248709511</v>
+        <v>0.1135305214738977</v>
       </c>
       <c r="F8">
-        <v>0.4757091673152942</v>
+        <v>0.4685517629316891</v>
       </c>
       <c r="G8">
-        <v>0.2303598505144251</v>
+        <v>0.2164494861475603</v>
       </c>
       <c r="H8">
-        <v>5.032250562586604E-05</v>
+        <v>3.860938624167254E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.221847192210717</v>
+        <v>0.2485410924039684</v>
       </c>
       <c r="K8">
-        <v>0.1385976972292386</v>
+        <v>0.1347192108585462</v>
       </c>
       <c r="L8">
-        <v>0.1084300294468967</v>
+        <v>0.09683470701817498</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02028125056035091</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1073467166326942</v>
       </c>
       <c r="O8">
-        <v>0.6928674410968654</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9020908940035781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6965503410136691</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8841218791724827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.213534966262898</v>
+        <v>3.203737073398599</v>
       </c>
       <c r="C9">
-        <v>0.799097369372447</v>
+        <v>0.8297749266113215</v>
       </c>
       <c r="D9">
-        <v>0.2193076271650938</v>
+        <v>0.2208466816699826</v>
       </c>
       <c r="E9">
-        <v>0.1328312740848254</v>
+        <v>0.1316188467713069</v>
       </c>
       <c r="F9">
-        <v>0.5241241529079161</v>
+        <v>0.5110888270077965</v>
       </c>
       <c r="G9">
-        <v>0.25648704328853</v>
+        <v>0.2407859172385471</v>
       </c>
       <c r="H9">
-        <v>0.001589650976012935</v>
+        <v>0.001391624460515217</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2217282501566658</v>
+        <v>0.2475590270984185</v>
       </c>
       <c r="K9">
-        <v>0.115653152295387</v>
+        <v>0.1122164644585784</v>
       </c>
       <c r="L9">
-        <v>0.1217390292191602</v>
+        <v>0.08403797935915414</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01685603899638632</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1193775781326956</v>
       </c>
       <c r="O9">
-        <v>0.9245097845902137</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9579854833683186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9321423237360733</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9257930562319814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.807039301411919</v>
+        <v>3.790204499415267</v>
       </c>
       <c r="C10">
-        <v>0.939919697798075</v>
+        <v>0.9828914139668541</v>
       </c>
       <c r="D10">
-        <v>0.2436722555715107</v>
+        <v>0.2466178450912508</v>
       </c>
       <c r="E10">
-        <v>0.1413277786471987</v>
+        <v>0.139733170785437</v>
       </c>
       <c r="F10">
-        <v>0.5543112238475985</v>
+        <v>0.5324121531589014</v>
       </c>
       <c r="G10">
-        <v>0.2741945843373372</v>
+        <v>0.2704756563001638</v>
       </c>
       <c r="H10">
-        <v>0.003948741513972287</v>
+        <v>0.003486759279526019</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2212727179824583</v>
+        <v>0.2282830218954004</v>
       </c>
       <c r="K10">
-        <v>0.1002583303658877</v>
+        <v>0.09610081221085309</v>
       </c>
       <c r="L10">
-        <v>0.1259355978191117</v>
+        <v>0.07554987426581761</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.01615818038315453</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1225641148545371</v>
       </c>
       <c r="O10">
-        <v>1.082540635976798</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9950828848865569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.092593577439686</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9398477143715525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.140408646523781</v>
+        <v>4.121841480059118</v>
       </c>
       <c r="C11">
-        <v>1.004521476643077</v>
+        <v>1.036913374362143</v>
       </c>
       <c r="D11">
-        <v>0.2123433937972408</v>
+        <v>0.2163708719135968</v>
       </c>
       <c r="E11">
-        <v>0.1047809878507699</v>
+        <v>0.1031839305684947</v>
       </c>
       <c r="F11">
-        <v>0.4850845229193155</v>
+        <v>0.4585670432065356</v>
       </c>
       <c r="G11">
-        <v>0.2381965488036286</v>
+        <v>0.2643637771874836</v>
       </c>
       <c r="H11">
-        <v>0.02252767008848977</v>
+        <v>0.02198689572600543</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1987696861434287</v>
+        <v>0.1794940949055928</v>
       </c>
       <c r="K11">
-        <v>0.08218854254960561</v>
+        <v>0.07964637617922143</v>
       </c>
       <c r="L11">
-        <v>0.09281505095317222</v>
+        <v>0.0692129145269611</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01165760749842537</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08975635048704511</v>
       </c>
       <c r="O11">
-        <v>1.047555490715901</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8718449603274792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.055539556714251</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8036260187159172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.299156134135785</v>
+        <v>4.280835248729829</v>
       </c>
       <c r="C12">
-        <v>1.029479747084565</v>
+        <v>1.05164597999709</v>
       </c>
       <c r="D12">
-        <v>0.1830206763294484</v>
+        <v>0.1868685602272251</v>
       </c>
       <c r="E12">
-        <v>0.08059218336624951</v>
+        <v>0.07887341894844369</v>
       </c>
       <c r="F12">
-        <v>0.4234699939314623</v>
+        <v>0.3981362613283181</v>
       </c>
       <c r="G12">
-        <v>0.2056383247056885</v>
+        <v>0.2444948952114459</v>
       </c>
       <c r="H12">
-        <v>0.06094201365311136</v>
+        <v>0.06039577412462904</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1804557644724341</v>
+        <v>0.1570319371899807</v>
       </c>
       <c r="K12">
-        <v>0.07190201019332587</v>
+        <v>0.0714468143649909</v>
       </c>
       <c r="L12">
-        <v>0.0812880797404536</v>
+        <v>0.06667257568911877</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.008577149260295513</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07873814278826319</v>
       </c>
       <c r="O12">
-        <v>0.9851725969195968</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7645387618068327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9910884545650234</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6987916704161137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.331051673130162</v>
+        <v>4.314651825746751</v>
       </c>
       <c r="C13">
-        <v>1.025094396124729</v>
+        <v>1.038134070374838</v>
       </c>
       <c r="D13">
-        <v>0.1536865242889291</v>
+        <v>0.1562290940963038</v>
       </c>
       <c r="E13">
-        <v>0.06447350320407086</v>
+        <v>0.06261569136672929</v>
       </c>
       <c r="F13">
-        <v>0.3640420458160989</v>
+        <v>0.3450874908662271</v>
       </c>
       <c r="G13">
-        <v>0.173647860120262</v>
+        <v>0.2084129667953789</v>
       </c>
       <c r="H13">
-        <v>0.116183706650915</v>
+        <v>0.1156935713910201</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1641637291228903</v>
+        <v>0.1507300437500945</v>
       </c>
       <c r="K13">
-        <v>0.06665910198876412</v>
+        <v>0.06839913040867729</v>
       </c>
       <c r="L13">
-        <v>0.08535760551718496</v>
+        <v>0.06607384727371657</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.006542110209170726</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08337519383884029</v>
       </c>
       <c r="O13">
-        <v>0.8986039540804143</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6625708513774669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.902417289307877</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6132587557102624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.295773236355956</v>
+        <v>4.281458224174571</v>
       </c>
       <c r="C14">
-        <v>1.008727148876574</v>
+        <v>1.01585807022758</v>
       </c>
       <c r="D14">
-        <v>0.1336368466591296</v>
+        <v>0.1349491826714626</v>
       </c>
       <c r="E14">
-        <v>0.05799997007147617</v>
+        <v>0.05610502297719089</v>
       </c>
       <c r="F14">
-        <v>0.3242317849880934</v>
+        <v>0.3113729454654788</v>
       </c>
       <c r="G14">
-        <v>0.1519292968894774</v>
+        <v>0.1777761331008136</v>
       </c>
       <c r="H14">
-        <v>0.1650960943993312</v>
+        <v>0.1646668724006588</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1538484657072487</v>
+        <v>0.1517077768906496</v>
       </c>
       <c r="K14">
-        <v>0.06548305970574586</v>
+        <v>0.06846077229993625</v>
       </c>
       <c r="L14">
-        <v>0.09736355970077426</v>
+        <v>0.06632107300859635</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.005710143876689777</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09570741719778297</v>
       </c>
       <c r="O14">
-        <v>0.8277758368921013</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5948588269774149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8301220487805736</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5615755538620419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.259607677266786</v>
+        <v>4.246141175558137</v>
       </c>
       <c r="C15">
-        <v>0.9984475805315753</v>
+        <v>1.004341762009659</v>
       </c>
       <c r="D15">
-        <v>0.1285049838879715</v>
+        <v>0.129380392226949</v>
       </c>
       <c r="E15">
-        <v>0.05704596056526023</v>
+        <v>0.05517583891136113</v>
       </c>
       <c r="F15">
-        <v>0.3146414002640086</v>
+        <v>0.3040052421434751</v>
       </c>
       <c r="G15">
-        <v>0.1465766525677381</v>
+        <v>0.1678910524934949</v>
       </c>
       <c r="H15">
-        <v>0.1774135421526495</v>
+        <v>0.1770127173712979</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1516959537634435</v>
+        <v>0.1542777600274228</v>
       </c>
       <c r="K15">
-        <v>0.06601600778615735</v>
+        <v>0.06921689783764717</v>
       </c>
       <c r="L15">
-        <v>0.1012892067706481</v>
+        <v>0.06658665772430483</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.005677727620583717</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09971086349687752</v>
       </c>
       <c r="O15">
-        <v>0.8054746812921749</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5789650103938726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8074428452272571</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5516215541976095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.994705721925754</v>
+        <v>3.984349681403444</v>
       </c>
       <c r="C16">
-        <v>0.9384102267389096</v>
+        <v>0.9456201913809537</v>
       </c>
       <c r="D16">
-        <v>0.1247485929742425</v>
+        <v>0.1243551146476491</v>
       </c>
       <c r="E16">
-        <v>0.05701753739438409</v>
+        <v>0.05540873450995076</v>
       </c>
       <c r="F16">
-        <v>0.3139801123937147</v>
+        <v>0.3101339262342648</v>
       </c>
       <c r="G16">
-        <v>0.1452113039761898</v>
+        <v>0.1469119067891071</v>
       </c>
       <c r="H16">
-        <v>0.1637203647700147</v>
+        <v>0.1634502867753724</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1549232034475807</v>
+        <v>0.1772665797577488</v>
       </c>
       <c r="K16">
-        <v>0.07277817702617817</v>
+        <v>0.07574029623307654</v>
       </c>
       <c r="L16">
-        <v>0.09830569031485936</v>
+        <v>0.06860145168254728</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.006929791832748222</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09690565077715263</v>
       </c>
       <c r="O16">
-        <v>0.7575715261310023</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.582615014556751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7592528883256122</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5738165696636628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.810976277817417</v>
+        <v>3.801797097017129</v>
       </c>
       <c r="C17">
-        <v>0.9011871570188532</v>
+        <v>0.9117135842164998</v>
       </c>
       <c r="D17">
-        <v>0.1321824465128429</v>
+        <v>0.1314887056232976</v>
       </c>
       <c r="E17">
-        <v>0.05963849371059737</v>
+        <v>0.05817246746326576</v>
       </c>
       <c r="F17">
-        <v>0.3343544189448551</v>
+        <v>0.3322506435507719</v>
       </c>
       <c r="G17">
-        <v>0.1556532015727328</v>
+        <v>0.148703070513065</v>
       </c>
       <c r="H17">
-        <v>0.1254567786162823</v>
+        <v>0.1252462957886422</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1629022672397227</v>
+        <v>0.1944511846223804</v>
       </c>
       <c r="K17">
-        <v>0.07864912014619074</v>
+        <v>0.08107969743187038</v>
       </c>
       <c r="L17">
-        <v>0.08821649928791686</v>
+        <v>0.0704721812990271</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.008252089525379258</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08687760919680088</v>
       </c>
       <c r="O17">
-        <v>0.7579702206706855</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6213328752973126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7601511881219594</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.617445056757262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.676693635818367</v>
+        <v>3.667305863854267</v>
       </c>
       <c r="C18">
-        <v>0.879331038622098</v>
+        <v>0.8962733088766583</v>
       </c>
       <c r="D18">
-        <v>0.1513383679720022</v>
+        <v>0.1508525171204553</v>
       </c>
       <c r="E18">
-        <v>0.06900284065965767</v>
+        <v>0.06758076072182195</v>
       </c>
       <c r="F18">
-        <v>0.3768914972473212</v>
+        <v>0.3736000252943441</v>
       </c>
       <c r="G18">
-        <v>0.1782580463681853</v>
+        <v>0.1660806636737675</v>
       </c>
       <c r="H18">
-        <v>0.07255296450365734</v>
+        <v>0.07235808125732746</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1761901435015503</v>
+        <v>0.2112701746099717</v>
       </c>
       <c r="K18">
-        <v>0.08519406880527125</v>
+        <v>0.0867135493447444</v>
       </c>
       <c r="L18">
-        <v>0.07918095536258374</v>
+        <v>0.0726922855293255</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.009932413642546045</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0777482236967364</v>
       </c>
       <c r="O18">
-        <v>0.8006237772840947</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.697016211188398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8041430496420858</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6901765042425012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.592773227903933</v>
+        <v>3.582132518727576</v>
       </c>
       <c r="C19">
-        <v>0.8714605911115143</v>
+        <v>0.897198769093535</v>
       </c>
       <c r="D19">
-        <v>0.1805643696060883</v>
+        <v>0.1806573450792257</v>
       </c>
       <c r="E19">
-        <v>0.08936985609605053</v>
+        <v>0.08791714758792857</v>
       </c>
       <c r="F19">
-        <v>0.4373081259735585</v>
+        <v>0.4306673120162117</v>
       </c>
       <c r="G19">
-        <v>0.2106083657779578</v>
+        <v>0.1945554988766318</v>
       </c>
       <c r="H19">
-        <v>0.02767818575276948</v>
+        <v>0.02745822273514875</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1934438410931847</v>
+        <v>0.2285018452159449</v>
       </c>
       <c r="K19">
-        <v>0.09310077810682227</v>
+        <v>0.09315941991302346</v>
       </c>
       <c r="L19">
-        <v>0.08392737039130971</v>
+        <v>0.07531850354140657</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01219378643168412</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08214419203687662</v>
       </c>
       <c r="O19">
-        <v>0.875760541906871</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8017223329014769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8813118368051676</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7862552012833532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.651456246110058</v>
+        <v>3.636677478983131</v>
       </c>
       <c r="C20">
-        <v>0.9029446581001253</v>
+        <v>0.9443287458841212</v>
       </c>
       <c r="D20">
-        <v>0.2370522041230601</v>
+        <v>0.2389615940600009</v>
       </c>
       <c r="E20">
-        <v>0.1388648136544433</v>
+        <v>0.1372759774887555</v>
       </c>
       <c r="F20">
-        <v>0.5456319796677462</v>
+        <v>0.5289084580428565</v>
       </c>
       <c r="G20">
-        <v>0.2690347877044985</v>
+        <v>0.2542116238591134</v>
       </c>
       <c r="H20">
-        <v>0.003221691703391816</v>
+        <v>0.002848801076162921</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2211083864814896</v>
+        <v>0.2437956331087676</v>
       </c>
       <c r="K20">
-        <v>0.1040098606669222</v>
+        <v>0.1006127940889492</v>
       </c>
       <c r="L20">
-        <v>0.1245917368833176</v>
+        <v>0.07780594837089971</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01637163730529867</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1215947489715745</v>
       </c>
       <c r="O20">
-        <v>1.040527261394807</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9836681054558056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.050033379453673</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9421110206823187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.096206580412684</v>
+        <v>4.074669079641069</v>
       </c>
       <c r="C21">
-        <v>1.010960540613468</v>
+        <v>1.054711773083227</v>
       </c>
       <c r="D21">
-        <v>0.2636930439917506</v>
+        <v>0.270514130237629</v>
       </c>
       <c r="E21">
-        <v>0.1537313323640213</v>
+        <v>0.1523901271192827</v>
       </c>
       <c r="F21">
-        <v>0.5859062244537014</v>
+        <v>0.5461833818882482</v>
       </c>
       <c r="G21">
-        <v>0.2922976769935559</v>
+        <v>0.3309775717782344</v>
       </c>
       <c r="H21">
-        <v>0.005446069296639489</v>
+        <v>0.00474330269629919</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2257609912191469</v>
+        <v>0.1842976598003716</v>
       </c>
       <c r="K21">
-        <v>0.09562921768395327</v>
+        <v>0.08821653562382714</v>
       </c>
       <c r="L21">
-        <v>0.136333231693218</v>
+        <v>0.07166665292366403</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01620539549186972</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1318160603394958</v>
       </c>
       <c r="O21">
-        <v>1.18106704163543</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.043113451246484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.192401029469295</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9409136820575128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.390758489484028</v>
+        <v>4.364678129697381</v>
       </c>
       <c r="C22">
-        <v>1.081628278263338</v>
+        <v>1.125474696934589</v>
       </c>
       <c r="D22">
-        <v>0.2785716056850163</v>
+        <v>0.2889827679400412</v>
       </c>
       <c r="E22">
-        <v>0.1607279084381332</v>
+        <v>0.1596401829199046</v>
       </c>
       <c r="F22">
-        <v>0.6081726100930993</v>
+        <v>0.5523217842055956</v>
       </c>
       <c r="G22">
-        <v>0.3056631636155203</v>
+        <v>0.3869284259454417</v>
       </c>
       <c r="H22">
-        <v>0.007179326083592369</v>
+        <v>0.006221104569866909</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2279301124365674</v>
+        <v>0.1518477312230502</v>
       </c>
       <c r="K22">
-        <v>0.09001877739621733</v>
+        <v>0.0799742390922944</v>
       </c>
       <c r="L22">
-        <v>0.1411946938545157</v>
+        <v>0.06793199297170149</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01614857688444005</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1357136467608804</v>
       </c>
       <c r="O22">
-        <v>1.266782688396347</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.076233608394375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.279062209869323</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9317055562674454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.233515272119632</v>
+        <v>4.209959953293776</v>
       </c>
       <c r="C23">
-        <v>1.043905243779534</v>
+        <v>1.089009669984705</v>
       </c>
       <c r="D23">
-        <v>0.2706249957862212</v>
+        <v>0.2785911888527295</v>
       </c>
       <c r="E23">
-        <v>0.1569913695364704</v>
+        <v>0.155684076747999</v>
       </c>
       <c r="F23">
-        <v>0.5961897238456757</v>
+        <v>0.551035533204697</v>
       </c>
       <c r="G23">
-        <v>0.2984446820180864</v>
+        <v>0.3498686009293834</v>
       </c>
       <c r="H23">
-        <v>0.006227569305416403</v>
+        <v>0.005417875837863573</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2267243079890733</v>
+        <v>0.1732233804286452</v>
       </c>
       <c r="K23">
-        <v>0.09295114181540498</v>
+        <v>0.08467346309120494</v>
       </c>
       <c r="L23">
-        <v>0.138599570789264</v>
+        <v>0.06997626676513935</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0163211410748243</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1337069707537388</v>
       </c>
       <c r="O23">
-        <v>1.221018437195013</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.058276310158334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.232871623673134</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9418148048555111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.638635432037063</v>
+        <v>3.623773028237224</v>
       </c>
       <c r="C24">
-        <v>0.9011490002560265</v>
+        <v>0.9434109475414516</v>
       </c>
       <c r="D24">
-        <v>0.2406441503772783</v>
+        <v>0.2426132899464477</v>
       </c>
       <c r="E24">
-        <v>0.1428853431054407</v>
+        <v>0.1412930346964067</v>
       </c>
       <c r="F24">
-        <v>0.5529062370176945</v>
+        <v>0.5358425581176007</v>
       </c>
       <c r="G24">
-        <v>0.2729056319675394</v>
+        <v>0.2573042706399136</v>
       </c>
       <c r="H24">
-        <v>0.003186926858770311</v>
+        <v>0.00280950035362737</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.223183500459136</v>
+        <v>0.2462350742986033</v>
       </c>
       <c r="K24">
-        <v>0.1053789035626309</v>
+        <v>0.1017453686475562</v>
       </c>
       <c r="L24">
-        <v>0.1287757006972718</v>
+        <v>0.07825781136283005</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01675770932373943</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1257087120163405</v>
       </c>
       <c r="O24">
-        <v>1.048009934225547</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9962159780968136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.057748148380817</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9538115693987805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.997628647895056</v>
+        <v>2.990295441224077</v>
       </c>
       <c r="C25">
-        <v>0.7472551987356724</v>
+        <v>0.7727351465109678</v>
       </c>
       <c r="D25">
-        <v>0.2085021161661018</v>
+        <v>0.2096263784323895</v>
       </c>
       <c r="E25">
-        <v>0.1277318835530181</v>
+        <v>0.1266843927515069</v>
       </c>
       <c r="F25">
-        <v>0.5102602923432045</v>
+        <v>0.5000548606318844</v>
       </c>
       <c r="G25">
-        <v>0.2487824980326039</v>
+        <v>0.2304739018731539</v>
       </c>
       <c r="H25">
-        <v>0.0009760737863266922</v>
+        <v>0.0008505268291572055</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2213687641518192</v>
+        <v>0.2521450700923396</v>
       </c>
       <c r="K25">
-        <v>0.1213590398327451</v>
+        <v>0.1181202418435827</v>
       </c>
       <c r="L25">
-        <v>0.1181552906397592</v>
+        <v>0.08732270308461487</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01739286678417429</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1161867259834324</v>
       </c>
       <c r="O25">
-        <v>0.8618304771396978</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9407020540187858</v>
+        <v>0.8684242043798349</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9157392848997858</v>
       </c>
     </row>
   </sheetData>
